--- a/B_Thermal/S01.xlsx
+++ b/B_Thermal/S01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/hl3422_ic_ac_uk/Documents/Year 4/Final Year Project/02 - Experiment/01 - Thermal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3312" documentId="8_{76318ECD-2708-074C-A97C-F91BD5AAD85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E60E18D-6475-4450-85C9-4F1C2AFE2A73}"/>
+  <xr:revisionPtr revIDLastSave="3734" documentId="8_{76318ECD-2708-074C-A97C-F91BD5AAD85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC59689-FBDD-477C-8A49-077B807F4362}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996BD578-188B-42B3-B257-B55B903FC4D0}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
@@ -2161,6 +2161,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -2173,18 +2185,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="I19:I33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -3447,6 +3447,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -3459,19 +3472,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -4734,6 +4734,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -4746,19 +4759,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -5841,6 +5841,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -5853,19 +5866,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -6710,7 +6710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B681F300-031B-4FC2-891E-1A4A94B41612}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
@@ -7853,6 +7853,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -7865,18 +7877,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="I19:I33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -7970,7 +7970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F3D790-3F94-4211-9A20-D53A3FF65B9E}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
@@ -9139,6 +9139,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -9151,19 +9164,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -9257,8 +9257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343166E-9ABE-4AC9-8C9E-5E57A3EFC375}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9898,14 +9898,16 @@
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14" t="e">
+      <c r="D19" s="12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E19" s="14">
         <f>AVERAGE(D19:D33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="14" t="e">
+        <v>0.15033333333333332</v>
+      </c>
+      <c r="F19" s="14">
         <f>_xlfn.VAR.S(D19:D33)</f>
-        <v>#DIV/0!</v>
+        <v>4.908380952380954E-3</v>
       </c>
       <c r="H19" s="15">
         <v>5.4</v>
@@ -9916,14 +9918,16 @@
       <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="14" t="e">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
         <f>AVERAGE(K19:K33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
         <f>_xlfn.VAR.S(K19:K33)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O19" s="15">
         <v>5</v>
@@ -9934,14 +9938,16 @@
       <c r="Q19" s="13">
         <v>1</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14" t="e">
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
         <f>AVERAGE(R19:R33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
         <f>_xlfn.VAR.S(R19:R33)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9950,7 +9956,9 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>0.109</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="H20" s="15"/>
@@ -9958,7 +9966,9 @@
       <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="O20" s="15"/>
@@ -9966,7 +9976,9 @@
       <c r="Q20" s="13">
         <v>2</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
@@ -9976,7 +9988,9 @@
       <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="H21" s="15"/>
@@ -9984,7 +9998,9 @@
       <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="O21" s="15"/>
@@ -9992,7 +10008,9 @@
       <c r="Q21" s="13">
         <v>3</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -10002,7 +10020,9 @@
       <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>0.184</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="H22" s="15"/>
@@ -10010,7 +10030,9 @@
       <c r="J22" s="13">
         <v>4</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="O22" s="15"/>
@@ -10018,7 +10040,9 @@
       <c r="Q22" s="13">
         <v>4</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
@@ -10028,7 +10052,9 @@
       <c r="C23" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>0.22500000000000001</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="H23" s="15"/>
@@ -10036,7 +10062,9 @@
       <c r="J23" s="13">
         <v>5</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="O23" s="15"/>
@@ -10044,7 +10072,9 @@
       <c r="Q23" s="13">
         <v>5</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -10054,7 +10084,9 @@
       <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>0.20899999999999999</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="H24" s="15"/>
@@ -10062,7 +10094,9 @@
       <c r="J24" s="13">
         <v>6</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="O24" s="15"/>
@@ -10070,7 +10104,9 @@
       <c r="Q24" s="13">
         <v>6</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <v>0</v>
+      </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
@@ -10080,7 +10116,9 @@
       <c r="C25" s="13">
         <v>7</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="H25" s="15"/>
@@ -10088,7 +10126,9 @@
       <c r="J25" s="13">
         <v>7</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="O25" s="15"/>
@@ -10096,7 +10136,9 @@
       <c r="Q25" s="13">
         <v>7</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="12">
+        <v>0</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
@@ -10106,7 +10148,9 @@
       <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>0.17399999999999999</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="H26" s="15"/>
@@ -10114,7 +10158,9 @@
       <c r="J26" s="13">
         <v>8</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="O26" s="15"/>
@@ -10122,7 +10168,9 @@
       <c r="Q26" s="13">
         <v>8</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="12">
+        <v>0</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
@@ -10132,7 +10180,9 @@
       <c r="C27" s="13">
         <v>9</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>0.248</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="H27" s="15"/>
@@ -10140,7 +10190,9 @@
       <c r="J27" s="13">
         <v>9</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="O27" s="15"/>
@@ -10148,7 +10200,9 @@
       <c r="Q27" s="13">
         <v>9</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="12">
+        <v>0</v>
+      </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
@@ -10158,7 +10212,9 @@
       <c r="C28" s="13">
         <v>10</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>0.183</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="H28" s="15"/>
@@ -10166,7 +10222,9 @@
       <c r="J28" s="13">
         <v>10</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="O28" s="15"/>
@@ -10174,7 +10232,9 @@
       <c r="Q28" s="13">
         <v>10</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="12">
+        <v>0</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
@@ -10184,7 +10244,9 @@
       <c r="C29" s="13">
         <v>11</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>0.14899999999999999</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="H29" s="15"/>
@@ -10192,7 +10254,9 @@
       <c r="J29" s="13">
         <v>11</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="O29" s="15"/>
@@ -10200,7 +10264,9 @@
       <c r="Q29" s="13">
         <v>11</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
@@ -10210,7 +10276,9 @@
       <c r="C30" s="13">
         <v>12</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="H30" s="15"/>
@@ -10218,7 +10286,9 @@
       <c r="J30" s="13">
         <v>12</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="O30" s="15"/>
@@ -10226,7 +10296,9 @@
       <c r="Q30" s="13">
         <v>12</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
@@ -10236,7 +10308,9 @@
       <c r="C31" s="13">
         <v>13</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>0.13400000000000001</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="H31" s="15"/>
@@ -10244,7 +10318,9 @@
       <c r="J31" s="13">
         <v>13</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="O31" s="15"/>
@@ -10252,7 +10328,9 @@
       <c r="Q31" s="13">
         <v>13</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
@@ -10262,7 +10340,9 @@
       <c r="C32" s="13">
         <v>14</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12">
+        <v>0.24299999999999999</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="H32" s="15"/>
@@ -10270,7 +10350,9 @@
       <c r="J32" s="13">
         <v>14</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="O32" s="15"/>
@@ -10278,7 +10360,9 @@
       <c r="Q32" s="13">
         <v>14</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12">
+        <v>0</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -10288,7 +10372,9 @@
       <c r="C33" s="13">
         <v>15</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="H33" s="15"/>
@@ -10296,7 +10382,9 @@
       <c r="J33" s="13">
         <v>15</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="O33" s="15"/>
@@ -10304,7 +10392,9 @@
       <c r="Q33" s="13">
         <v>15</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="12">
+        <v>0</v>
+      </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
@@ -10336,6 +10426,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -10348,19 +10451,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -10454,8 +10544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6077A0D1-B69C-42AF-8A67-AB98A9FB7FF3}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11443,6 +11533,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -11455,19 +11558,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -12397,7 +12487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB6719F-63A8-4145-8432-958FB4D256DF}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -13540,6 +13630,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -13552,18 +13654,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="I19:I33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -13657,8 +13747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303BF751-22BF-47D4-879F-C9A54825C353}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14826,6 +14916,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -14838,19 +14941,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -14944,8 +15034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F18E719-0C76-4FE3-BC3F-76E6337B10C4}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:T35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15019,14 +15109,16 @@
       <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="e">
+      <c r="D2" s="12">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="E2" s="14">
         <f>AVERAGE(D2:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="14" t="e">
+        <v>1.4483999999999999</v>
+      </c>
+      <c r="F2" s="14">
         <f>_xlfn.VAR.S(D2:D16)</f>
-        <v>#DIV/0!</v>
+        <v>1.8023542857142853E-2</v>
       </c>
       <c r="H2" s="15">
         <v>3.8</v>
@@ -15037,14 +15129,16 @@
       <c r="J2" s="13">
         <v>1</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="14" t="e">
+      <c r="K2" s="12">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="L2" s="14">
         <f>AVERAGE(K2:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="14" t="e">
+        <v>0.9946666666666667</v>
+      </c>
+      <c r="M2" s="14">
         <f>_xlfn.VAR.S(K2:K16)</f>
-        <v>#DIV/0!</v>
+        <v>3.2707095238095264E-2</v>
       </c>
       <c r="O2" s="15">
         <v>4.2</v>
@@ -15055,14 +15149,16 @@
       <c r="Q2" s="13">
         <v>1</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="14" t="e">
+      <c r="R2" s="12">
+        <v>0.151</v>
+      </c>
+      <c r="S2" s="14">
         <f>AVERAGE(R2:R16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T2" s="14" t="e">
+        <v>0.21126666666666663</v>
+      </c>
+      <c r="T2" s="14">
         <f>_xlfn.VAR.S(R2:R16)</f>
-        <v>#DIV/0!</v>
+        <v>8.0299238095238226E-3</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15071,7 +15167,9 @@
       <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12">
+        <v>1.304</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="H3" s="15"/>
@@ -15079,7 +15177,9 @@
       <c r="J3" s="13">
         <v>2</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>0.98699999999999999</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="O3" s="15"/>
@@ -15087,7 +15187,9 @@
       <c r="Q3" s="13">
         <v>2</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="12">
+        <v>0.16300000000000001</v>
+      </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
@@ -15097,7 +15199,9 @@
       <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>1.31</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="H4" s="15"/>
@@ -15105,7 +15209,9 @@
       <c r="J4" s="13">
         <v>3</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>1.1279999999999999</v>
+      </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="O4" s="15"/>
@@ -15113,7 +15219,9 @@
       <c r="Q4" s="13">
         <v>3</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="12">
+        <v>0.113</v>
+      </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
@@ -15123,7 +15231,9 @@
       <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>1.288</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="H5" s="15"/>
@@ -15131,7 +15241,9 @@
       <c r="J5" s="13">
         <v>4</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>0.95899999999999996</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="O5" s="15"/>
@@ -15139,7 +15251,9 @@
       <c r="Q5" s="13">
         <v>4</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="12">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
@@ -15149,7 +15263,9 @@
       <c r="C6" s="13">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>1.4279999999999999</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="H6" s="15"/>
@@ -15157,7 +15273,9 @@
       <c r="J6" s="13">
         <v>5</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12">
+        <v>1.0940000000000001</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="O6" s="15"/>
@@ -15165,7 +15283,9 @@
       <c r="Q6" s="13">
         <v>5</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="12">
+        <v>0.19700000000000001</v>
+      </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
@@ -15175,7 +15295,9 @@
       <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>1.647</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="H7" s="15"/>
@@ -15183,7 +15305,9 @@
       <c r="J7" s="13">
         <v>6</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>0.745</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="O7" s="15"/>
@@ -15191,7 +15315,9 @@
       <c r="Q7" s="13">
         <v>6</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="12">
+        <v>0.223</v>
+      </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
@@ -15201,7 +15327,9 @@
       <c r="C8" s="13">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>1.3879999999999999</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="H8" s="15"/>
@@ -15209,7 +15337,9 @@
       <c r="J8" s="13">
         <v>7</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>1.01</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="O8" s="15"/>
@@ -15217,7 +15347,9 @@
       <c r="Q8" s="13">
         <v>7</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="12">
+        <v>0.45800000000000002</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
@@ -15227,7 +15359,9 @@
       <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>1.5680000000000001</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="H9" s="15"/>
@@ -15235,7 +15369,9 @@
       <c r="J9" s="13">
         <v>8</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="12">
+        <v>1.383</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="O9" s="15"/>
@@ -15243,7 +15379,9 @@
       <c r="Q9" s="13">
         <v>8</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="12">
+        <v>0.191</v>
+      </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
@@ -15253,7 +15391,9 @@
       <c r="C10" s="13">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>1.512</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="H10" s="15"/>
@@ -15261,7 +15401,9 @@
       <c r="J10" s="13">
         <v>9</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="12">
+        <v>1.0860000000000001</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="O10" s="15"/>
@@ -15269,7 +15411,9 @@
       <c r="Q10" s="13">
         <v>9</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="12">
+        <v>0.246</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
@@ -15279,7 +15423,9 @@
       <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>1.6519999999999999</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="H11" s="15"/>
@@ -15287,7 +15433,9 @@
       <c r="J11" s="13">
         <v>10</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>0.71199999999999997</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="O11" s="15"/>
@@ -15295,7 +15443,9 @@
       <c r="Q11" s="13">
         <v>10</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="12">
+        <v>0.255</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
@@ -15305,7 +15455,9 @@
       <c r="C12" s="13">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>1.5229999999999999</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="H12" s="15"/>
@@ -15313,7 +15465,9 @@
       <c r="J12" s="13">
         <v>11</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12">
+        <v>0.81</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="O12" s="15"/>
@@ -15321,7 +15475,9 @@
       <c r="Q12" s="13">
         <v>11</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="12">
+        <v>0.22700000000000001</v>
+      </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
@@ -15331,7 +15487,9 @@
       <c r="C13" s="13">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>1.556</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="H13" s="15"/>
@@ -15339,7 +15497,9 @@
       <c r="J13" s="13">
         <v>12</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="12">
+        <v>1.0269999999999999</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="O13" s="15"/>
@@ -15347,7 +15507,9 @@
       <c r="Q13" s="13">
         <v>12</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="12">
+        <v>0.13700000000000001</v>
+      </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
@@ -15357,7 +15519,9 @@
       <c r="C14" s="13">
         <v>13</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>1.5069999999999999</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="H14" s="15"/>
@@ -15365,7 +15529,9 @@
       <c r="J14" s="13">
         <v>13</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="12">
+        <v>1.252</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="O14" s="15"/>
@@ -15373,7 +15539,9 @@
       <c r="Q14" s="13">
         <v>13</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
@@ -15383,7 +15551,9 @@
       <c r="C15" s="13">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>1.42</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="H15" s="15"/>
@@ -15391,7 +15561,9 @@
       <c r="J15" s="13">
         <v>14</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12">
+        <v>0.95599999999999996</v>
+      </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="O15" s="15"/>
@@ -15399,7 +15571,9 @@
       <c r="Q15" s="13">
         <v>14</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="12">
+        <v>0.316</v>
+      </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
@@ -15409,7 +15583,9 @@
       <c r="C16" s="13">
         <v>15</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12">
+        <v>1.2010000000000001</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="H16" s="15"/>
@@ -15417,7 +15593,9 @@
       <c r="J16" s="13">
         <v>15</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="12">
+        <v>0.86799999999999999</v>
+      </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="O16" s="15"/>
@@ -15425,7 +15603,9 @@
       <c r="Q16" s="13">
         <v>15</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="12">
+        <v>0.22700000000000001</v>
+      </c>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
@@ -15495,14 +15675,16 @@
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14" t="e">
+      <c r="D19" s="12">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E19" s="14">
         <f>AVERAGE(D19:D33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="14" t="e">
+        <v>0.19173333333333337</v>
+      </c>
+      <c r="F19" s="14">
         <f>_xlfn.VAR.S(D19:D33)</f>
-        <v>#DIV/0!</v>
+        <v>1.3887066666666661E-2</v>
       </c>
       <c r="H19" s="15">
         <v>5.4</v>
@@ -15513,14 +15695,16 @@
       <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="14" t="e">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
         <f>AVERAGE(K19:K33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
         <f>_xlfn.VAR.S(K19:K33)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O19" s="15">
         <v>5</v>
@@ -15531,14 +15715,16 @@
       <c r="Q19" s="13">
         <v>1</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14" t="e">
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
         <f>AVERAGE(R19:R33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
         <f>_xlfn.VAR.S(R19:R33)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15547,7 +15733,9 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>0.247</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="H20" s="15"/>
@@ -15555,7 +15743,9 @@
       <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="O20" s="15"/>
@@ -15563,7 +15753,9 @@
       <c r="Q20" s="13">
         <v>2</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
@@ -15573,7 +15765,9 @@
       <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>0.253</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="H21" s="15"/>
@@ -15581,7 +15775,9 @@
       <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="O21" s="15"/>
@@ -15589,7 +15785,9 @@
       <c r="Q21" s="13">
         <v>3</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -15599,7 +15797,9 @@
       <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>0.17100000000000001</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="H22" s="15"/>
@@ -15607,7 +15807,9 @@
       <c r="J22" s="13">
         <v>4</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="O22" s="15"/>
@@ -15615,7 +15817,9 @@
       <c r="Q22" s="13">
         <v>4</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
@@ -15625,7 +15829,9 @@
       <c r="C23" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>0.16900000000000001</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="H23" s="15"/>
@@ -15633,7 +15839,9 @@
       <c r="J23" s="13">
         <v>5</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="O23" s="15"/>
@@ -15641,7 +15849,9 @@
       <c r="Q23" s="13">
         <v>5</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -15651,7 +15861,9 @@
       <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>0.34200000000000003</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="H24" s="15"/>
@@ -15659,7 +15871,9 @@
       <c r="J24" s="13">
         <v>6</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="O24" s="15"/>
@@ -15667,7 +15881,9 @@
       <c r="Q24" s="13">
         <v>6</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <v>0</v>
+      </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
@@ -15677,7 +15893,9 @@
       <c r="C25" s="13">
         <v>7</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>0.44600000000000001</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="H25" s="15"/>
@@ -15685,7 +15903,9 @@
       <c r="J25" s="13">
         <v>7</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="O25" s="15"/>
@@ -15693,7 +15913,9 @@
       <c r="Q25" s="13">
         <v>7</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="12">
+        <v>0</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
@@ -15703,7 +15925,9 @@
       <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>0.30399999999999999</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="H26" s="15"/>
@@ -15711,7 +15935,9 @@
       <c r="J26" s="13">
         <v>8</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="O26" s="15"/>
@@ -15719,7 +15945,9 @@
       <c r="Q26" s="13">
         <v>8</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="12">
+        <v>0</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
@@ -15729,7 +15957,9 @@
       <c r="C27" s="13">
         <v>9</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>0.16400000000000001</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="H27" s="15"/>
@@ -15737,7 +15967,9 @@
       <c r="J27" s="13">
         <v>9</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="O27" s="15"/>
@@ -15745,7 +15977,9 @@
       <c r="Q27" s="13">
         <v>9</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="12">
+        <v>0</v>
+      </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
@@ -15755,7 +15989,9 @@
       <c r="C28" s="13">
         <v>10</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>0.13200000000000001</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="H28" s="15"/>
@@ -15763,7 +15999,9 @@
       <c r="J28" s="13">
         <v>10</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="O28" s="15"/>
@@ -15771,7 +16009,9 @@
       <c r="Q28" s="13">
         <v>10</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="12">
+        <v>0</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
@@ -15781,7 +16021,9 @@
       <c r="C29" s="13">
         <v>11</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="H29" s="15"/>
@@ -15789,7 +16031,9 @@
       <c r="J29" s="13">
         <v>11</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="O29" s="15"/>
@@ -15797,7 +16041,9 @@
       <c r="Q29" s="13">
         <v>11</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
@@ -15807,7 +16053,9 @@
       <c r="C30" s="13">
         <v>12</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="H30" s="15"/>
@@ -15815,7 +16063,9 @@
       <c r="J30" s="13">
         <v>12</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="O30" s="15"/>
@@ -15823,7 +16073,9 @@
       <c r="Q30" s="13">
         <v>12</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
@@ -15833,7 +16085,9 @@
       <c r="C31" s="13">
         <v>13</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>3.9E-2</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="H31" s="15"/>
@@ -15841,7 +16095,9 @@
       <c r="J31" s="13">
         <v>13</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="O31" s="15"/>
@@ -15849,7 +16105,9 @@
       <c r="Q31" s="13">
         <v>13</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
@@ -15859,7 +16117,9 @@
       <c r="C32" s="13">
         <v>14</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12">
+        <v>0.114</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="H32" s="15"/>
@@ -15867,7 +16127,9 @@
       <c r="J32" s="13">
         <v>14</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="O32" s="15"/>
@@ -15875,7 +16137,9 @@
       <c r="Q32" s="13">
         <v>14</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12">
+        <v>0</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -15885,7 +16149,9 @@
       <c r="C33" s="13">
         <v>15</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="H33" s="15"/>
@@ -15893,7 +16159,9 @@
       <c r="J33" s="13">
         <v>15</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="O33" s="15"/>
@@ -15901,7 +16169,9 @@
       <c r="Q33" s="13">
         <v>15</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="12">
+        <v>0</v>
+      </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
@@ -15933,6 +16203,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -15945,19 +16228,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -17040,6 +17310,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -17052,19 +17335,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -17909,7 +18179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9AD1B9-6E58-40DE-AE2F-F5B2FA191194}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
@@ -19052,6 +19322,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -19064,18 +19346,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="I19:I33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -19169,8 +19439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2487FE80-DBDD-4B44-A65A-D75A74FA83DB}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20338,6 +20608,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -20350,19 +20633,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -20456,8 +20726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1168F677-E35B-4859-8D58-8C2C41A3E38C}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:T35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20531,14 +20801,16 @@
       <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="e">
+      <c r="D2" s="12">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E2" s="14">
         <f>AVERAGE(D2:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="14" t="e">
+        <v>0.78406666666666669</v>
+      </c>
+      <c r="F2" s="14">
         <f>_xlfn.VAR.S(D2:D16)</f>
-        <v>#DIV/0!</v>
+        <v>5.3284780952380907E-2</v>
       </c>
       <c r="H2" s="15">
         <v>3.8</v>
@@ -20549,14 +20821,16 @@
       <c r="J2" s="13">
         <v>1</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="14" t="e">
+      <c r="K2" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L2" s="14">
         <f>AVERAGE(K2:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="14" t="e">
+        <v>1.2322666666666668</v>
+      </c>
+      <c r="M2" s="14">
         <f>_xlfn.VAR.S(K2:K16)</f>
-        <v>#DIV/0!</v>
+        <v>0.12489763809523804</v>
       </c>
       <c r="O2" s="15">
         <v>4.2</v>
@@ -20567,14 +20841,16 @@
       <c r="Q2" s="13">
         <v>1</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="14" t="e">
+      <c r="R2" s="12">
+        <v>1.254</v>
+      </c>
+      <c r="S2" s="14">
         <f>AVERAGE(R2:R16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T2" s="14" t="e">
+        <v>0.96899999999999986</v>
+      </c>
+      <c r="T2" s="14">
         <f>_xlfn.VAR.S(R2:R16)</f>
-        <v>#DIV/0!</v>
+        <v>3.3307285714285761E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20583,7 +20859,9 @@
       <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12">
+        <v>0.81</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="H3" s="15"/>
@@ -20591,7 +20869,9 @@
       <c r="J3" s="13">
         <v>2</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>1.798</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="O3" s="15"/>
@@ -20599,7 +20879,9 @@
       <c r="Q3" s="13">
         <v>2</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="12">
+        <v>0.94599999999999995</v>
+      </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
@@ -20609,7 +20891,9 @@
       <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>0.28199999999999997</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="H4" s="15"/>
@@ -20617,7 +20901,9 @@
       <c r="J4" s="13">
         <v>3</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>0.97299999999999998</v>
+      </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="O4" s="15"/>
@@ -20625,7 +20911,9 @@
       <c r="Q4" s="13">
         <v>3</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="12">
+        <v>0.88300000000000001</v>
+      </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
@@ -20635,7 +20923,9 @@
       <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>0.75600000000000001</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="H5" s="15"/>
@@ -20643,7 +20933,9 @@
       <c r="J5" s="13">
         <v>4</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>0.97299999999999998</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="O5" s="15"/>
@@ -20651,7 +20943,9 @@
       <c r="Q5" s="13">
         <v>4</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="12">
+        <v>0.92100000000000004</v>
+      </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
@@ -20661,7 +20955,9 @@
       <c r="C6" s="13">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>0.68799999999999994</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="H6" s="15"/>
@@ -20669,7 +20965,9 @@
       <c r="J6" s="13">
         <v>5</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12">
+        <v>0.97299999999999998</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="O6" s="15"/>
@@ -20677,7 +20975,9 @@
       <c r="Q6" s="13">
         <v>5</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="12">
+        <v>0.82399999999999995</v>
+      </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
@@ -20687,7 +20987,9 @@
       <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>0.95199999999999996</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="H7" s="15"/>
@@ -20695,7 +20997,9 @@
       <c r="J7" s="13">
         <v>6</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>1.7450000000000001</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="O7" s="15"/>
@@ -20703,7 +21007,9 @@
       <c r="Q7" s="13">
         <v>6</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="12">
+        <v>0.78700000000000003</v>
+      </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
@@ -20713,7 +21019,9 @@
       <c r="C8" s="13">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="H8" s="15"/>
@@ -20721,7 +21029,9 @@
       <c r="J8" s="13">
         <v>7</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>1.7450000000000001</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="O8" s="15"/>
@@ -20729,7 +21039,9 @@
       <c r="Q8" s="13">
         <v>7</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="12">
+        <v>0.84199999999999997</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
@@ -20739,7 +21051,9 @@
       <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>1.01</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="H9" s="15"/>
@@ -20747,7 +21061,9 @@
       <c r="J9" s="13">
         <v>8</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="12">
+        <v>0.95799999999999996</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="O9" s="15"/>
@@ -20755,7 +21071,9 @@
       <c r="Q9" s="13">
         <v>8</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="12">
+        <v>0.98399999999999999</v>
+      </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
@@ -20765,7 +21083,9 @@
       <c r="C10" s="13">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>0.66300000000000003</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="H10" s="15"/>
@@ -20773,7 +21093,9 @@
       <c r="J10" s="13">
         <v>9</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="12">
+        <v>0.88600000000000001</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="O10" s="15"/>
@@ -20781,7 +21103,9 @@
       <c r="Q10" s="13">
         <v>9</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="12">
+        <v>0.82</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
@@ -20791,7 +21115,9 @@
       <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>0.88</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="H11" s="15"/>
@@ -20799,7 +21125,9 @@
       <c r="J11" s="13">
         <v>10</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>0.81100000000000005</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="O11" s="15"/>
@@ -20807,7 +21135,9 @@
       <c r="Q11" s="13">
         <v>10</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="12">
+        <v>0.96699999999999997</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
@@ -20817,7 +21147,9 @@
       <c r="C12" s="13">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>0.67800000000000005</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="H12" s="15"/>
@@ -20825,7 +21157,9 @@
       <c r="J12" s="13">
         <v>11</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12">
+        <v>1.1080000000000001</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="O12" s="15"/>
@@ -20833,7 +21167,9 @@
       <c r="Q12" s="13">
         <v>11</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="12">
+        <v>0.85699999999999998</v>
+      </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
@@ -20843,7 +21179,9 @@
       <c r="C13" s="13">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>0.74</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="H13" s="15"/>
@@ -20851,7 +21189,9 @@
       <c r="J13" s="13">
         <v>12</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="12">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="O13" s="15"/>
@@ -20859,7 +21199,9 @@
       <c r="Q13" s="13">
         <v>12</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="12">
+        <v>1.3939999999999999</v>
+      </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
@@ -20869,7 +21211,9 @@
       <c r="C14" s="13">
         <v>13</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>0.91300000000000003</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="H14" s="15"/>
@@ -20877,7 +21221,9 @@
       <c r="J14" s="13">
         <v>13</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="12">
+        <v>1.1120000000000001</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="O14" s="15"/>
@@ -20885,7 +21231,9 @@
       <c r="Q14" s="13">
         <v>13</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="12">
+        <v>1.246</v>
+      </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
@@ -20895,7 +21243,9 @@
       <c r="C15" s="13">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>1.1559999999999999</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="H15" s="15"/>
@@ -20903,7 +21253,9 @@
       <c r="J15" s="13">
         <v>14</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12">
+        <v>1.675</v>
+      </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="O15" s="15"/>
@@ -20911,7 +21263,9 @@
       <c r="Q15" s="13">
         <v>14</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="12">
+        <v>0.95</v>
+      </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
@@ -20921,7 +21275,9 @@
       <c r="C16" s="13">
         <v>15</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12">
+        <v>0.66</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="H16" s="15"/>
@@ -20929,7 +21285,9 @@
       <c r="J16" s="13">
         <v>15</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="12">
+        <v>1.077</v>
+      </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="O16" s="15"/>
@@ -20937,7 +21295,9 @@
       <c r="Q16" s="13">
         <v>15</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="12">
+        <v>0.86</v>
+      </c>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
@@ -21007,14 +21367,16 @@
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14" t="e">
+      <c r="D19" s="12">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E19" s="14">
         <f>AVERAGE(D19:D33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="14" t="e">
+        <v>0.31986666666666669</v>
+      </c>
+      <c r="F19" s="14">
         <f>_xlfn.VAR.S(D19:D33)</f>
-        <v>#DIV/0!</v>
+        <v>9.0371238095238015E-3</v>
       </c>
       <c r="H19" s="15">
         <v>5.4</v>
@@ -21025,14 +21387,16 @@
       <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="14" t="e">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
         <f>AVERAGE(K19:K33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
         <f>_xlfn.VAR.S(K19:K33)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O19" s="15">
         <v>5</v>
@@ -21043,14 +21407,16 @@
       <c r="Q19" s="13">
         <v>1</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14" t="e">
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
         <f>AVERAGE(R19:R33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
         <f>_xlfn.VAR.S(R19:R33)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -21059,7 +21425,9 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>0.28100000000000003</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="H20" s="15"/>
@@ -21067,7 +21435,9 @@
       <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="O20" s="15"/>
@@ -21075,7 +21445,9 @@
       <c r="Q20" s="13">
         <v>2</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
@@ -21085,7 +21457,9 @@
       <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>0.20699999999999999</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="H21" s="15"/>
@@ -21093,7 +21467,9 @@
       <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="O21" s="15"/>
@@ -21101,7 +21477,9 @@
       <c r="Q21" s="13">
         <v>3</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -21111,7 +21489,9 @@
       <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>0.20399999999999999</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="H22" s="15"/>
@@ -21119,7 +21499,9 @@
       <c r="J22" s="13">
         <v>4</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="O22" s="15"/>
@@ -21127,7 +21509,9 @@
       <c r="Q22" s="13">
         <v>4</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
@@ -21137,7 +21521,9 @@
       <c r="C23" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>0.23599999999999999</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="H23" s="15"/>
@@ -21145,7 +21531,9 @@
       <c r="J23" s="13">
         <v>5</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="O23" s="15"/>
@@ -21153,7 +21541,9 @@
       <c r="Q23" s="13">
         <v>5</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -21163,7 +21553,9 @@
       <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>0.35699999999999998</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="H24" s="15"/>
@@ -21171,7 +21563,9 @@
       <c r="J24" s="13">
         <v>6</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="O24" s="15"/>
@@ -21179,7 +21573,9 @@
       <c r="Q24" s="13">
         <v>6</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <v>0</v>
+      </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
@@ -21189,7 +21585,9 @@
       <c r="C25" s="13">
         <v>7</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>0.46100000000000002</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="H25" s="15"/>
@@ -21197,7 +21595,9 @@
       <c r="J25" s="13">
         <v>7</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="O25" s="15"/>
@@ -21205,7 +21605,9 @@
       <c r="Q25" s="13">
         <v>7</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="12">
+        <v>0</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
@@ -21215,7 +21617,9 @@
       <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>0.31</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="H26" s="15"/>
@@ -21223,7 +21627,9 @@
       <c r="J26" s="13">
         <v>8</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="O26" s="15"/>
@@ -21231,7 +21637,9 @@
       <c r="Q26" s="13">
         <v>8</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="12">
+        <v>0</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
@@ -21241,7 +21649,9 @@
       <c r="C27" s="13">
         <v>9</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>0.496</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="H27" s="15"/>
@@ -21249,7 +21659,9 @@
       <c r="J27" s="13">
         <v>9</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="O27" s="15"/>
@@ -21257,7 +21669,9 @@
       <c r="Q27" s="13">
         <v>9</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="12">
+        <v>0</v>
+      </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
@@ -21267,7 +21681,9 @@
       <c r="C28" s="13">
         <v>10</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>0.40799999999999997</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="H28" s="15"/>
@@ -21275,7 +21691,9 @@
       <c r="J28" s="13">
         <v>10</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="O28" s="15"/>
@@ -21283,7 +21701,9 @@
       <c r="Q28" s="13">
         <v>10</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="12">
+        <v>0</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
@@ -21293,7 +21713,9 @@
       <c r="C29" s="13">
         <v>11</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>0.36299999999999999</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="H29" s="15"/>
@@ -21301,7 +21723,9 @@
       <c r="J29" s="13">
         <v>11</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="O29" s="15"/>
@@ -21309,7 +21733,9 @@
       <c r="Q29" s="13">
         <v>11</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
@@ -21319,7 +21745,9 @@
       <c r="C30" s="13">
         <v>12</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>0.28699999999999998</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="H30" s="15"/>
@@ -21327,7 +21755,9 @@
       <c r="J30" s="13">
         <v>12</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="O30" s="15"/>
@@ -21335,7 +21765,9 @@
       <c r="Q30" s="13">
         <v>12</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
@@ -21345,7 +21777,9 @@
       <c r="C31" s="13">
         <v>13</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>0.42</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="H31" s="15"/>
@@ -21353,7 +21787,9 @@
       <c r="J31" s="13">
         <v>13</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="O31" s="15"/>
@@ -21361,7 +21797,9 @@
       <c r="Q31" s="13">
         <v>13</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
@@ -21371,7 +21809,9 @@
       <c r="C32" s="13">
         <v>14</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12">
+        <v>0.31</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="H32" s="15"/>
@@ -21379,7 +21819,9 @@
       <c r="J32" s="13">
         <v>14</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="O32" s="15"/>
@@ -21387,7 +21829,9 @@
       <c r="Q32" s="13">
         <v>14</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12">
+        <v>0</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -21397,7 +21841,9 @@
       <c r="C33" s="13">
         <v>15</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>0.19700000000000001</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="H33" s="15"/>
@@ -21405,7 +21851,9 @@
       <c r="J33" s="13">
         <v>15</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="O33" s="15"/>
@@ -21413,7 +21861,9 @@
       <c r="Q33" s="13">
         <v>15</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="12">
+        <v>0</v>
+      </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
@@ -21445,6 +21895,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -21457,19 +21920,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -22552,6 +23002,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -22564,19 +23027,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -23509,8 +23959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CD02C4-7CCA-4ED9-8261-6B7667BB2399}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24652,6 +25102,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -24664,18 +25126,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="I19:I33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -24769,8 +25219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68B71E3-DBB2-4DED-B944-6DD1C27588A6}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25938,6 +26388,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -25950,19 +26413,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -26056,8 +26506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10FF62-5809-4D1E-A2FF-9D2AB229E3F5}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:T35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26131,14 +26581,16 @@
       <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="e">
+      <c r="D2" s="12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E2" s="14">
         <f>AVERAGE(D2:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="14" t="e">
+        <v>0.40979999999999994</v>
+      </c>
+      <c r="F2" s="14">
         <f>_xlfn.VAR.S(D2:D16)</f>
-        <v>#DIV/0!</v>
+        <v>3.2096028571428646E-2</v>
       </c>
       <c r="H2" s="15">
         <v>3.8</v>
@@ -26149,14 +26601,16 @@
       <c r="J2" s="13">
         <v>1</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="14" t="e">
+      <c r="K2" s="12">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L2" s="14">
         <f>AVERAGE(K2:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="14" t="e">
+        <v>0.57526666666666659</v>
+      </c>
+      <c r="M2" s="14">
         <f>_xlfn.VAR.S(K2:K16)</f>
-        <v>#DIV/0!</v>
+        <v>4.8279638095238199E-2</v>
       </c>
       <c r="O2" s="15">
         <v>4.2</v>
@@ -26167,14 +26621,16 @@
       <c r="Q2" s="13">
         <v>1</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="14" t="e">
+      <c r="R2" s="12">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="S2" s="14">
         <f>AVERAGE(R2:R16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T2" s="14" t="e">
+        <v>0.95713333333333339</v>
+      </c>
+      <c r="T2" s="14">
         <f>_xlfn.VAR.S(R2:R16)</f>
-        <v>#DIV/0!</v>
+        <v>5.4982409523809395E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -26183,7 +26639,9 @@
       <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12">
+        <v>0.60599999999999998</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="H3" s="15"/>
@@ -26191,7 +26649,9 @@
       <c r="J3" s="13">
         <v>2</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="O3" s="15"/>
@@ -26199,7 +26659,9 @@
       <c r="Q3" s="13">
         <v>2</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="12">
+        <v>0.83699999999999997</v>
+      </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
@@ -26209,7 +26671,9 @@
       <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>0.39400000000000002</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="H4" s="15"/>
@@ -26217,7 +26681,9 @@
       <c r="J4" s="13">
         <v>3</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>0.622</v>
+      </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="O4" s="15"/>
@@ -26225,7 +26691,9 @@
       <c r="Q4" s="13">
         <v>3</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="12">
+        <v>0.83599999999999997</v>
+      </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
@@ -26235,7 +26703,9 @@
       <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="H5" s="15"/>
@@ -26243,7 +26713,9 @@
       <c r="J5" s="13">
         <v>4</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="O5" s="15"/>
@@ -26251,7 +26723,9 @@
       <c r="Q5" s="13">
         <v>4</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="12">
+        <v>0.61199999999999999</v>
+      </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
@@ -26261,7 +26735,9 @@
       <c r="C6" s="13">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>0.20599999999999999</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="H6" s="15"/>
@@ -26269,7 +26745,9 @@
       <c r="J6" s="13">
         <v>5</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12">
+        <v>0.90900000000000003</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="O6" s="15"/>
@@ -26277,7 +26755,9 @@
       <c r="Q6" s="13">
         <v>5</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="12">
+        <v>0.76800000000000002</v>
+      </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
@@ -26287,7 +26767,9 @@
       <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>0.314</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="H7" s="15"/>
@@ -26295,7 +26777,9 @@
       <c r="J7" s="13">
         <v>6</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>0.875</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="O7" s="15"/>
@@ -26303,7 +26787,9 @@
       <c r="Q7" s="13">
         <v>6</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="12">
+        <v>0.97699999999999998</v>
+      </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
@@ -26313,7 +26799,9 @@
       <c r="C8" s="13">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>0.58199999999999996</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="H8" s="15"/>
@@ -26321,7 +26809,9 @@
       <c r="J8" s="13">
         <v>7</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>0.496</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="O8" s="15"/>
@@ -26329,7 +26819,9 @@
       <c r="Q8" s="13">
         <v>7</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="12">
+        <v>1.075</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
@@ -26339,7 +26831,9 @@
       <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>0.34799999999999998</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="H9" s="15"/>
@@ -26347,7 +26841,9 @@
       <c r="J9" s="13">
         <v>8</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="12">
+        <v>0.27100000000000002</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="O9" s="15"/>
@@ -26355,7 +26851,9 @@
       <c r="Q9" s="13">
         <v>8</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="12">
+        <v>1.498</v>
+      </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
@@ -26365,7 +26863,9 @@
       <c r="C10" s="13">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>0.20699999999999999</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="H10" s="15"/>
@@ -26373,7 +26873,9 @@
       <c r="J10" s="13">
         <v>9</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="12">
+        <v>0.80800000000000005</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="O10" s="15"/>
@@ -26381,7 +26883,9 @@
       <c r="Q10" s="13">
         <v>9</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="12">
+        <v>0.94299999999999995</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
@@ -26391,7 +26895,9 @@
       <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>0.57099999999999995</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="H11" s="15"/>
@@ -26399,7 +26905,9 @@
       <c r="J11" s="13">
         <v>10</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>0.59699999999999998</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="O11" s="15"/>
@@ -26407,7 +26915,9 @@
       <c r="Q11" s="13">
         <v>10</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="12">
+        <v>0.874</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
@@ -26417,7 +26927,9 @@
       <c r="C12" s="13">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>0.70599999999999996</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="H12" s="15"/>
@@ -26425,7 +26937,9 @@
       <c r="J12" s="13">
         <v>11</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12">
+        <v>0.40600000000000003</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="O12" s="15"/>
@@ -26433,7 +26947,9 @@
       <c r="Q12" s="13">
         <v>11</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="12">
+        <v>0.93100000000000005</v>
+      </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
@@ -26443,7 +26959,9 @@
       <c r="C13" s="13">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>0.21199999999999999</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="H13" s="15"/>
@@ -26451,7 +26969,9 @@
       <c r="J13" s="13">
         <v>12</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="12">
+        <v>0.28899999999999998</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="O13" s="15"/>
@@ -26459,7 +26979,9 @@
       <c r="Q13" s="13">
         <v>12</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="12">
+        <v>0.91500000000000004</v>
+      </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
@@ -26469,7 +26991,9 @@
       <c r="C14" s="13">
         <v>13</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="H14" s="15"/>
@@ -26477,7 +27001,9 @@
       <c r="J14" s="13">
         <v>13</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="12">
+        <v>0.27900000000000003</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="O14" s="15"/>
@@ -26485,7 +27011,9 @@
       <c r="Q14" s="13">
         <v>13</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="12">
+        <v>1.327</v>
+      </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
@@ -26495,7 +27023,9 @@
       <c r="C15" s="13">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>0.60199999999999998</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="H15" s="15"/>
@@ -26503,7 +27033,9 @@
       <c r="J15" s="13">
         <v>14</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12">
+        <v>0.65700000000000003</v>
+      </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="O15" s="15"/>
@@ -26511,7 +27043,9 @@
       <c r="Q15" s="13">
         <v>14</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="12">
+        <v>1.2010000000000001</v>
+      </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
@@ -26521,7 +27055,9 @@
       <c r="C16" s="13">
         <v>15</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12">
+        <v>0.49299999999999999</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="H16" s="15"/>
@@ -26529,7 +27065,9 @@
       <c r="J16" s="13">
         <v>15</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="12">
+        <v>0.76100000000000001</v>
+      </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="O16" s="15"/>
@@ -26537,7 +27075,9 @@
       <c r="Q16" s="13">
         <v>15</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="12">
+        <v>0.85699999999999998</v>
+      </c>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
@@ -26607,14 +27147,16 @@
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14" t="e">
+      <c r="D19" s="12">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E19" s="14">
         <f>AVERAGE(D19:D33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="14" t="e">
+        <v>0.6899333333333334</v>
+      </c>
+      <c r="F19" s="14">
         <f>_xlfn.VAR.S(D19:D33)</f>
-        <v>#DIV/0!</v>
+        <v>2.0555923809523678E-2</v>
       </c>
       <c r="H19" s="15">
         <v>5.4</v>
@@ -26625,14 +27167,16 @@
       <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="14" t="e">
+      <c r="K19" s="12">
+        <v>0.314</v>
+      </c>
+      <c r="L19" s="14">
         <f>AVERAGE(K19:K33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="14" t="e">
+        <v>0.30513333333333337</v>
+      </c>
+      <c r="M19" s="14">
         <f>_xlfn.VAR.S(K19:K33)</f>
-        <v>#DIV/0!</v>
+        <v>1.0717123809523785E-2</v>
       </c>
       <c r="O19" s="15">
         <v>5</v>
@@ -26643,14 +27187,16 @@
       <c r="Q19" s="13">
         <v>1</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14" t="e">
+      <c r="R19" s="12">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="S19" s="14">
         <f>AVERAGE(R19:R33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="14" t="e">
+        <v>0.16326666666666664</v>
+      </c>
+      <c r="T19" s="14">
         <f>_xlfn.VAR.S(R19:R33)</f>
-        <v>#DIV/0!</v>
+        <v>7.090780952380955E-3</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -26659,7 +27205,9 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>0.63700000000000001</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="H20" s="15"/>
@@ -26667,7 +27215,9 @@
       <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="12">
+        <v>0.05</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="O20" s="15"/>
@@ -26675,7 +27225,9 @@
       <c r="Q20" s="13">
         <v>2</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="12">
+        <v>0.42899999999999999</v>
+      </c>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
@@ -26685,7 +27237,9 @@
       <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>0.73799999999999999</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="H21" s="15"/>
@@ -26693,7 +27247,9 @@
       <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="O21" s="15"/>
@@ -26701,7 +27257,9 @@
       <c r="Q21" s="13">
         <v>3</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="12">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -26711,7 +27269,9 @@
       <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>0.83299999999999996</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="H22" s="15"/>
@@ -26719,7 +27279,9 @@
       <c r="J22" s="13">
         <v>4</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>0.34599999999999997</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="O22" s="15"/>
@@ -26727,7 +27289,9 @@
       <c r="Q22" s="13">
         <v>4</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="12">
+        <v>0.2</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
@@ -26737,7 +27301,9 @@
       <c r="C23" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>0.97199999999999998</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="H23" s="15"/>
@@ -26745,7 +27311,9 @@
       <c r="J23" s="13">
         <v>5</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12">
+        <v>0.31</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="O23" s="15"/>
@@ -26753,7 +27321,9 @@
       <c r="Q23" s="13">
         <v>5</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="12">
+        <v>0.16</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -26763,7 +27333,9 @@
       <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>0.86</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="H24" s="15"/>
@@ -26771,7 +27343,9 @@
       <c r="J24" s="13">
         <v>6</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>0.36</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="O24" s="15"/>
@@ -26779,7 +27353,9 @@
       <c r="Q24" s="13">
         <v>6</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <v>0.111</v>
+      </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
@@ -26789,7 +27365,9 @@
       <c r="C25" s="13">
         <v>7</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>0.74199999999999999</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="H25" s="15"/>
@@ -26797,7 +27375,9 @@
       <c r="J25" s="13">
         <v>7</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>0.34200000000000003</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="O25" s="15"/>
@@ -26805,7 +27385,9 @@
       <c r="Q25" s="13">
         <v>7</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="12">
+        <v>0.14299999999999999</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
@@ -26815,7 +27397,9 @@
       <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>0.52700000000000002</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="H26" s="15"/>
@@ -26823,7 +27407,9 @@
       <c r="J26" s="13">
         <v>8</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>0.25900000000000001</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="O26" s="15"/>
@@ -26831,7 +27417,9 @@
       <c r="Q26" s="13">
         <v>8</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="12">
+        <v>9.7000000000000003E-2</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
@@ -26841,7 +27429,9 @@
       <c r="C27" s="13">
         <v>9</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>0.50800000000000001</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="H27" s="15"/>
@@ -26849,7 +27439,9 @@
       <c r="J27" s="13">
         <v>9</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>0.40100000000000002</v>
+      </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="O27" s="15"/>
@@ -26857,7 +27449,9 @@
       <c r="Q27" s="13">
         <v>9</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="12">
+        <v>0.122</v>
+      </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
@@ -26867,7 +27461,9 @@
       <c r="C28" s="13">
         <v>10</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>0.60499999999999998</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="H28" s="15"/>
@@ -26875,7 +27471,9 @@
       <c r="J28" s="13">
         <v>10</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>0.435</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="O28" s="15"/>
@@ -26883,7 +27481,9 @@
       <c r="Q28" s="13">
         <v>10</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="12">
+        <v>0.108</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
@@ -26893,7 +27493,9 @@
       <c r="C29" s="13">
         <v>11</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>0.79900000000000004</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="H29" s="15"/>
@@ -26901,7 +27503,9 @@
       <c r="J29" s="13">
         <v>11</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>0.35</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="O29" s="15"/>
@@ -26909,7 +27513,9 @@
       <c r="Q29" s="13">
         <v>11</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
@@ -26919,7 +27525,9 @@
       <c r="C30" s="13">
         <v>12</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>0.77600000000000002</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="H30" s="15"/>
@@ -26927,7 +27535,9 @@
       <c r="J30" s="13">
         <v>12</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>0.36599999999999999</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="O30" s="15"/>
@@ -26935,7 +27545,9 @@
       <c r="Q30" s="13">
         <v>12</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="12">
+        <v>0.161</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
@@ -26945,7 +27557,9 @@
       <c r="C31" s="13">
         <v>13</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="H31" s="15"/>
@@ -26953,7 +27567,9 @@
       <c r="J31" s="13">
         <v>13</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="O31" s="15"/>
@@ -26961,7 +27577,9 @@
       <c r="Q31" s="13">
         <v>13</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="12">
+        <v>0.05</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
@@ -26971,7 +27589,9 @@
       <c r="C32" s="13">
         <v>14</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12">
+        <v>0.46200000000000002</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="H32" s="15"/>
@@ -26979,7 +27599,9 @@
       <c r="J32" s="13">
         <v>14</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>0.29099999999999998</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="O32" s="15"/>
@@ -26987,7 +27609,9 @@
       <c r="Q32" s="13">
         <v>14</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12">
+        <v>0.19500000000000001</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -26997,7 +27621,9 @@
       <c r="C33" s="13">
         <v>15</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>0.61699999999999999</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="H33" s="15"/>
@@ -27005,7 +27631,9 @@
       <c r="J33" s="13">
         <v>15</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>0.251</v>
+      </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="O33" s="15"/>
@@ -27013,7 +27641,9 @@
       <c r="Q33" s="13">
         <v>15</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="12">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
@@ -27045,6 +27675,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -27057,19 +27700,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -27163,7 +27793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3553A47-2956-4501-9E59-95366E9851E9}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -28152,6 +28782,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -28164,19 +28807,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -29021,7 +29651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1017D32-54F2-4387-A895-5D6BA9A33ED3}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
@@ -30164,6 +30794,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -30176,18 +30818,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="I19:I33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -30281,8 +30911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7DB6F0-25DA-49C7-AEA3-B5DB1388556C}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30396,14 +31026,16 @@
       <c r="Q2" s="13">
         <v>1</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="14" t="e">
+      <c r="R2" s="12">
+        <v>0.111</v>
+      </c>
+      <c r="S2" s="14">
         <f>AVERAGE(R2:R16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T2" s="14" t="e">
+        <v>8.7066666666666667E-2</v>
+      </c>
+      <c r="T2" s="14">
         <f>_xlfn.VAR.S(R2:R16)</f>
-        <v>#DIV/0!</v>
+        <v>2.9839238095238077E-3</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -30432,7 +31064,9 @@
       <c r="Q3" s="13">
         <v>2</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
@@ -30462,7 +31096,9 @@
       <c r="Q4" s="13">
         <v>3</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="12">
+        <v>0.122</v>
+      </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
@@ -30492,7 +31128,9 @@
       <c r="Q5" s="13">
         <v>4</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
@@ -30522,7 +31160,9 @@
       <c r="Q6" s="13">
         <v>5</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="12">
+        <v>0.16800000000000001</v>
+      </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
@@ -30552,7 +31192,9 @@
       <c r="Q7" s="13">
         <v>6</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="12">
+        <v>0.08</v>
+      </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
@@ -30582,7 +31224,9 @@
       <c r="Q8" s="13">
         <v>7</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="12">
+        <v>3.9E-2</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
@@ -30612,7 +31256,9 @@
       <c r="Q9" s="13">
         <v>8</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="12">
+        <v>2.4E-2</v>
+      </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
@@ -30642,7 +31288,9 @@
       <c r="Q10" s="13">
         <v>9</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="12">
+        <v>0.01</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
@@ -30672,7 +31320,9 @@
       <c r="Q11" s="13">
         <v>10</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="12">
+        <v>0.122</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
@@ -30702,7 +31352,9 @@
       <c r="Q12" s="13">
         <v>11</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="12">
+        <v>0.128</v>
+      </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
@@ -30732,7 +31384,9 @@
       <c r="Q13" s="13">
         <v>12</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="12">
+        <v>0.189</v>
+      </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
@@ -30762,7 +31416,9 @@
       <c r="Q14" s="13">
         <v>13</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
@@ -30792,7 +31448,9 @@
       <c r="Q15" s="13">
         <v>14</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="12">
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
@@ -30822,7 +31480,9 @@
       <c r="Q16" s="13">
         <v>15</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="12">
+        <v>2E-3</v>
+      </c>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
@@ -30892,14 +31552,16 @@
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14" t="e">
+      <c r="D19" s="12">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E19" s="14">
         <f>AVERAGE(D19:D33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="14" t="e">
+        <v>1.0016</v>
+      </c>
+      <c r="F19" s="14">
         <f>_xlfn.VAR.S(D19:D33)</f>
-        <v>#DIV/0!</v>
+        <v>7.9189542857142997E-2</v>
       </c>
       <c r="H19" s="15">
         <v>5.4</v>
@@ -30910,14 +31572,16 @@
       <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="14" t="e">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
         <f>AVERAGE(K19:K33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="14" t="e">
+        <v>5.9600000000000007E-2</v>
+      </c>
+      <c r="M19" s="14">
         <f>_xlfn.VAR.S(K19:K33)</f>
-        <v>#DIV/0!</v>
+        <v>6.7475428571428572E-3</v>
       </c>
       <c r="O19" s="15">
         <v>5</v>
@@ -30928,14 +31592,16 @@
       <c r="Q19" s="13">
         <v>1</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14" t="e">
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
         <f>AVERAGE(R19:R33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
         <f>_xlfn.VAR.S(R19:R33)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -30944,7 +31610,9 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>1.21</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="H20" s="15"/>
@@ -30952,7 +31620,9 @@
       <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="O20" s="15"/>
@@ -30960,7 +31630,9 @@
       <c r="Q20" s="13">
         <v>2</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
@@ -30970,7 +31642,9 @@
       <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>1.196</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="H21" s="15"/>
@@ -30978,7 +31652,9 @@
       <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="O21" s="15"/>
@@ -30986,7 +31662,9 @@
       <c r="Q21" s="13">
         <v>3</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -30996,7 +31674,9 @@
       <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>1.103</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="H22" s="15"/>
@@ -31004,7 +31684,9 @@
       <c r="J22" s="13">
         <v>4</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="O22" s="15"/>
@@ -31012,7 +31694,9 @@
       <c r="Q22" s="13">
         <v>4</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
@@ -31022,7 +31706,9 @@
       <c r="C23" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>1.5349999999999999</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="H23" s="15"/>
@@ -31030,7 +31716,9 @@
       <c r="J23" s="13">
         <v>5</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="O23" s="15"/>
@@ -31038,7 +31726,9 @@
       <c r="Q23" s="13">
         <v>5</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -31048,7 +31738,9 @@
       <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>0.95599999999999996</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="H24" s="15"/>
@@ -31056,7 +31748,9 @@
       <c r="J24" s="13">
         <v>6</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="O24" s="15"/>
@@ -31064,7 +31758,9 @@
       <c r="Q24" s="13">
         <v>6</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <v>0</v>
+      </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
@@ -31074,7 +31770,9 @@
       <c r="C25" s="13">
         <v>7</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>0.83699999999999997</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="H25" s="15"/>
@@ -31082,7 +31780,9 @@
       <c r="J25" s="13">
         <v>7</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>0.216</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="O25" s="15"/>
@@ -31090,7 +31790,9 @@
       <c r="Q25" s="13">
         <v>7</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="12">
+        <v>0</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
@@ -31100,7 +31802,9 @@
       <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>1.526</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="H26" s="15"/>
@@ -31108,7 +31812,9 @@
       <c r="J26" s="13">
         <v>8</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>0.192</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="O26" s="15"/>
@@ -31116,7 +31822,9 @@
       <c r="Q26" s="13">
         <v>8</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="12">
+        <v>0</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
@@ -31126,7 +31834,9 @@
       <c r="C27" s="13">
         <v>9</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>1.024</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="H27" s="15"/>
@@ -31134,7 +31844,9 @@
       <c r="J27" s="13">
         <v>9</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="O27" s="15"/>
@@ -31142,7 +31854,9 @@
       <c r="Q27" s="13">
         <v>9</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="12">
+        <v>0</v>
+      </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
@@ -31152,7 +31866,9 @@
       <c r="C28" s="13">
         <v>10</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>0.85099999999999998</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="H28" s="15"/>
@@ -31160,7 +31876,9 @@
       <c r="J28" s="13">
         <v>10</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="O28" s="15"/>
@@ -31168,7 +31886,9 @@
       <c r="Q28" s="13">
         <v>10</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="12">
+        <v>0</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
@@ -31178,7 +31898,9 @@
       <c r="C29" s="13">
         <v>11</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>0.75900000000000001</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="H29" s="15"/>
@@ -31186,7 +31908,9 @@
       <c r="J29" s="13">
         <v>11</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="O29" s="15"/>
@@ -31194,7 +31918,9 @@
       <c r="Q29" s="13">
         <v>11</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
@@ -31204,7 +31930,9 @@
       <c r="C30" s="13">
         <v>12</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>0.71699999999999997</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="H30" s="15"/>
@@ -31212,7 +31940,9 @@
       <c r="J30" s="13">
         <v>12</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="O30" s="15"/>
@@ -31220,7 +31950,9 @@
       <c r="Q30" s="13">
         <v>12</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
@@ -31230,7 +31962,9 @@
       <c r="C31" s="13">
         <v>13</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>0.55600000000000005</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="H31" s="15"/>
@@ -31238,7 +31972,9 @@
       <c r="J31" s="13">
         <v>13</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="O31" s="15"/>
@@ -31246,7 +31982,9 @@
       <c r="Q31" s="13">
         <v>13</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
@@ -31256,7 +31994,9 @@
       <c r="C32" s="13">
         <v>14</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12">
+        <v>1.07</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="H32" s="15"/>
@@ -31264,7 +32004,9 @@
       <c r="J32" s="13">
         <v>14</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>0.189</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="O32" s="15"/>
@@ -31272,7 +32014,9 @@
       <c r="Q32" s="13">
         <v>14</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12">
+        <v>0</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -31282,7 +32026,9 @@
       <c r="C33" s="13">
         <v>15</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>0.91700000000000004</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="H33" s="15"/>
@@ -31290,7 +32036,9 @@
       <c r="J33" s="13">
         <v>15</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>0.13700000000000001</v>
+      </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="O33" s="15"/>
@@ -31298,7 +32046,9 @@
       <c r="Q33" s="13">
         <v>15</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="12">
+        <v>0</v>
+      </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
@@ -31330,6 +32080,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -31342,19 +32105,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -31448,8 +32198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AA3583-3F4B-47DB-8277-6EF38847FA58}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:T35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31523,14 +32273,16 @@
       <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="e">
+      <c r="D2" s="12">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E2" s="14">
         <f>AVERAGE(D2:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="14" t="e">
+        <v>0.22486666666666669</v>
+      </c>
+      <c r="F2" s="14">
         <f>_xlfn.VAR.S(D2:D16)</f>
-        <v>#DIV/0!</v>
+        <v>3.6157980952380937E-2</v>
       </c>
       <c r="H2" s="15">
         <v>3.8</v>
@@ -31541,14 +32293,16 @@
       <c r="J2" s="13">
         <v>1</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="14" t="e">
+      <c r="K2" s="12">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="L2" s="14">
         <f>AVERAGE(K2:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="14" t="e">
+        <v>0.55319999999999991</v>
+      </c>
+      <c r="M2" s="14">
         <f>_xlfn.VAR.S(K2:K16)</f>
-        <v>#DIV/0!</v>
+        <v>5.3199314285714373E-2</v>
       </c>
       <c r="O2" s="15">
         <v>4.2</v>
@@ -31559,14 +32313,16 @@
       <c r="Q2" s="13">
         <v>1</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="14" t="e">
+      <c r="R2" s="12">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="S2" s="14">
         <f>AVERAGE(R2:R16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T2" s="14" t="e">
+        <v>0.41526666666666673</v>
+      </c>
+      <c r="T2" s="14">
         <f>_xlfn.VAR.S(R2:R16)</f>
-        <v>#DIV/0!</v>
+        <v>2.0245780952380863E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -31575,7 +32331,9 @@
       <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="H3" s="15"/>
@@ -31583,7 +32341,9 @@
       <c r="J3" s="13">
         <v>2</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>0.56699999999999995</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="O3" s="15"/>
@@ -31591,7 +32351,9 @@
       <c r="Q3" s="13">
         <v>2</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="12">
+        <v>0.504</v>
+      </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
@@ -31601,7 +32363,9 @@
       <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>0.48499999999999999</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="H4" s="15"/>
@@ -31609,7 +32373,9 @@
       <c r="J4" s="13">
         <v>3</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>0.874</v>
+      </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="O4" s="15"/>
@@ -31617,7 +32383,9 @@
       <c r="Q4" s="13">
         <v>3</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="12">
+        <v>0.72199999999999998</v>
+      </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
     </row>
@@ -31627,7 +32395,9 @@
       <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>0.36199999999999999</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="H5" s="15"/>
@@ -31635,7 +32405,9 @@
       <c r="J5" s="13">
         <v>4</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>0.995</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="O5" s="15"/>
@@ -31643,7 +32415,9 @@
       <c r="Q5" s="13">
         <v>4</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="12">
+        <v>0.46200000000000002</v>
+      </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
@@ -31653,7 +32427,9 @@
       <c r="C6" s="13">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>8.5999999999999993E-2</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="H6" s="15"/>
@@ -31661,7 +32437,9 @@
       <c r="J6" s="13">
         <v>5</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12">
+        <v>0.36299999999999999</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="O6" s="15"/>
@@ -31669,7 +32447,9 @@
       <c r="Q6" s="13">
         <v>5</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="12">
+        <v>0.23200000000000001</v>
+      </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
@@ -31679,7 +32459,9 @@
       <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>0.108</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="H7" s="15"/>
@@ -31687,7 +32469,9 @@
       <c r="J7" s="13">
         <v>6</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>0.35699999999999998</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="O7" s="15"/>
@@ -31695,7 +32479,9 @@
       <c r="Q7" s="13">
         <v>6</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="12">
+        <v>0.44</v>
+      </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
@@ -31705,7 +32491,9 @@
       <c r="C8" s="13">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="H8" s="15"/>
@@ -31713,7 +32501,9 @@
       <c r="J8" s="13">
         <v>7</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>0.70099999999999996</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="O8" s="15"/>
@@ -31721,7 +32511,9 @@
       <c r="Q8" s="13">
         <v>7</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="12">
+        <v>0.377</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
@@ -31731,7 +32523,9 @@
       <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="H9" s="15"/>
@@ -31739,7 +32533,9 @@
       <c r="J9" s="13">
         <v>8</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="12">
+        <v>0.88500000000000001</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="O9" s="15"/>
@@ -31747,7 +32543,9 @@
       <c r="Q9" s="13">
         <v>8</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="12">
+        <v>0.248</v>
+      </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
@@ -31757,7 +32555,9 @@
       <c r="C10" s="13">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>0.63800000000000001</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="H10" s="15"/>
@@ -31765,7 +32565,9 @@
       <c r="J10" s="13">
         <v>9</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="12">
+        <v>0.69499999999999995</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="O10" s="15"/>
@@ -31773,7 +32575,9 @@
       <c r="Q10" s="13">
         <v>9</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="12">
+        <v>0.48499999999999999</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
@@ -31783,7 +32587,9 @@
       <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>0.307</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="H11" s="15"/>
@@ -31791,7 +32597,9 @@
       <c r="J11" s="13">
         <v>10</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>0.36499999999999999</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="O11" s="15"/>
@@ -31799,7 +32607,9 @@
       <c r="Q11" s="13">
         <v>10</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="12">
+        <v>0.39200000000000002</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
@@ -31809,7 +32619,9 @@
       <c r="C12" s="13">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="H12" s="15"/>
@@ -31817,7 +32629,9 @@
       <c r="J12" s="13">
         <v>11</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12">
+        <v>0.54200000000000004</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="O12" s="15"/>
@@ -31825,7 +32639,9 @@
       <c r="Q12" s="13">
         <v>11</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="12">
+        <v>0.221</v>
+      </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
@@ -31835,7 +32651,9 @@
       <c r="C13" s="13">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>0.28199999999999997</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="H13" s="15"/>
@@ -31843,7 +32661,9 @@
       <c r="J13" s="13">
         <v>12</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="12">
+        <v>0.59</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="O13" s="15"/>
@@ -31851,7 +32671,9 @@
       <c r="Q13" s="13">
         <v>12</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="12">
+        <v>0.51600000000000001</v>
+      </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
@@ -31861,7 +32683,9 @@
       <c r="C14" s="13">
         <v>13</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="H14" s="15"/>
@@ -31869,7 +32693,9 @@
       <c r="J14" s="13">
         <v>13</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="12">
+        <v>0.30199999999999999</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="O14" s="15"/>
@@ -31877,7 +32703,9 @@
       <c r="Q14" s="13">
         <v>13</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="12">
+        <v>0.20300000000000001</v>
+      </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
@@ -31887,7 +32715,9 @@
       <c r="C15" s="13">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>0.14299999999999999</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="H15" s="15"/>
@@ -31895,7 +32725,9 @@
       <c r="J15" s="13">
         <v>14</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12">
+        <v>0.34</v>
+      </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="O15" s="15"/>
@@ -31903,7 +32735,9 @@
       <c r="Q15" s="13">
         <v>14</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="12">
+        <v>0.53700000000000003</v>
+      </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
@@ -31913,7 +32747,9 @@
       <c r="C16" s="13">
         <v>15</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="H16" s="15"/>
@@ -31921,7 +32757,9 @@
       <c r="J16" s="13">
         <v>15</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="12">
+        <v>0.376</v>
+      </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="O16" s="15"/>
@@ -31929,7 +32767,9 @@
       <c r="Q16" s="13">
         <v>15</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="12">
+        <v>0.42599999999999999</v>
+      </c>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
@@ -31999,14 +32839,16 @@
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14" t="e">
+      <c r="D19" s="12">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E19" s="14">
         <f>AVERAGE(D19:D33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="14" t="e">
+        <v>0.69893333333333318</v>
+      </c>
+      <c r="F19" s="14">
         <f>_xlfn.VAR.S(D19:D33)</f>
-        <v>#DIV/0!</v>
+        <v>3.1244066666666841E-2</v>
       </c>
       <c r="H19" s="15">
         <v>5.4</v>
@@ -32017,14 +32859,16 @@
       <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="14" t="e">
+      <c r="K19" s="12">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L19" s="14">
         <f>AVERAGE(K19:K33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="14" t="e">
+        <v>9.2000000000000012E-2</v>
+      </c>
+      <c r="M19" s="14">
         <f>_xlfn.VAR.S(K19:K33)</f>
-        <v>#DIV/0!</v>
+        <v>5.7242857142857139E-3</v>
       </c>
       <c r="O19" s="15">
         <v>5</v>
@@ -32035,14 +32879,16 @@
       <c r="Q19" s="13">
         <v>1</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14" t="e">
+      <c r="R19" s="12">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="S19" s="14">
         <f>AVERAGE(R19:R33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="14" t="e">
+        <v>0.41953333333333326</v>
+      </c>
+      <c r="T19" s="14">
         <f>_xlfn.VAR.S(R19:R33)</f>
-        <v>#DIV/0!</v>
+        <v>1.599426666666675E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -32051,7 +32897,9 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>0.41499999999999998</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="H20" s="15"/>
@@ -32059,7 +32907,9 @@
       <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="O20" s="15"/>
@@ -32067,7 +32917,9 @@
       <c r="Q20" s="13">
         <v>2</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="12">
+        <v>0.32300000000000001</v>
+      </c>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
@@ -32077,7 +32929,9 @@
       <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>0.622</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="H21" s="15"/>
@@ -32085,7 +32939,9 @@
       <c r="J21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="O21" s="15"/>
@@ -32093,7 +32949,9 @@
       <c r="Q21" s="13">
         <v>3</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="12">
+        <v>0.378</v>
+      </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -32103,7 +32961,9 @@
       <c r="C22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>0.83099999999999996</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="H22" s="15"/>
@@ -32111,7 +32971,9 @@
       <c r="J22" s="13">
         <v>4</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="O22" s="15"/>
@@ -32119,7 +32981,9 @@
       <c r="Q22" s="13">
         <v>4</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="12">
+        <v>0.308</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
@@ -32129,7 +32993,9 @@
       <c r="C23" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>0.82699999999999996</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="H23" s="15"/>
@@ -32137,7 +33003,9 @@
       <c r="J23" s="13">
         <v>5</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="O23" s="15"/>
@@ -32145,7 +33013,9 @@
       <c r="Q23" s="13">
         <v>5</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="12">
+        <v>0.20300000000000001</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -32155,7 +33025,9 @@
       <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>0.85099999999999998</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="H24" s="15"/>
@@ -32163,7 +33035,9 @@
       <c r="J24" s="13">
         <v>6</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="O24" s="15"/>
@@ -32171,7 +33045,9 @@
       <c r="Q24" s="13">
         <v>6</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <v>0.51300000000000001</v>
+      </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
@@ -32181,7 +33057,9 @@
       <c r="C25" s="13">
         <v>7</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>0.57699999999999996</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="H25" s="15"/>
@@ -32189,7 +33067,9 @@
       <c r="J25" s="13">
         <v>7</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>0.29399999999999998</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="O25" s="15"/>
@@ -32197,7 +33077,9 @@
       <c r="Q25" s="13">
         <v>7</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="12">
+        <v>0.46600000000000003</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
@@ -32207,7 +33089,9 @@
       <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>0.52200000000000002</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="H26" s="15"/>
@@ -32215,7 +33099,9 @@
       <c r="J26" s="13">
         <v>8</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>0.16300000000000001</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="O26" s="15"/>
@@ -32223,7 +33109,9 @@
       <c r="Q26" s="13">
         <v>8</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="12">
+        <v>0.23599999999999999</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
@@ -32233,7 +33121,9 @@
       <c r="C27" s="13">
         <v>9</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>0.74099999999999999</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="H27" s="15"/>
@@ -32241,7 +33131,9 @@
       <c r="J27" s="13">
         <v>9</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>3.9E-2</v>
+      </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="O27" s="15"/>
@@ -32249,7 +33141,9 @@
       <c r="Q27" s="13">
         <v>9</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="12">
+        <v>0.61699999999999999</v>
+      </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
@@ -32259,7 +33153,9 @@
       <c r="C28" s="13">
         <v>10</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>0.65200000000000002</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="H28" s="15"/>
@@ -32267,7 +33163,9 @@
       <c r="J28" s="13">
         <v>10</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>0.154</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="O28" s="15"/>
@@ -32275,7 +33173,9 @@
       <c r="Q28" s="13">
         <v>10</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="12">
+        <v>0.34599999999999997</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
@@ -32285,7 +33185,9 @@
       <c r="C29" s="13">
         <v>11</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>1.091</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="H29" s="15"/>
@@ -32293,7 +33195,9 @@
       <c r="J29" s="13">
         <v>11</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="O29" s="15"/>
@@ -32301,7 +33205,9 @@
       <c r="Q29" s="13">
         <v>11</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12">
+        <v>0.629</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
@@ -32311,7 +33217,9 @@
       <c r="C30" s="13">
         <v>12</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>0.47</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="H30" s="15"/>
@@ -32319,7 +33227,9 @@
       <c r="J30" s="13">
         <v>12</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>0.122</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="O30" s="15"/>
@@ -32327,7 +33237,9 @@
       <c r="Q30" s="13">
         <v>12</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="12">
+        <v>0.46600000000000003</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
@@ -32337,7 +33249,9 @@
       <c r="C31" s="13">
         <v>13</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>0.69699999999999995</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="H31" s="15"/>
@@ -32345,7 +33259,9 @@
       <c r="J31" s="13">
         <v>13</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="O31" s="15"/>
@@ -32353,7 +33269,9 @@
       <c r="Q31" s="13">
         <v>13</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="12">
+        <v>0.51</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
@@ -32363,7 +33281,9 @@
       <c r="C32" s="13">
         <v>14</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12">
+        <v>0.72599999999999998</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="H32" s="15"/>
@@ -32371,7 +33291,9 @@
       <c r="J32" s="13">
         <v>14</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="O32" s="15"/>
@@ -32379,7 +33301,9 @@
       <c r="Q32" s="13">
         <v>14</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12">
+        <v>0.46</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -32389,7 +33313,9 @@
       <c r="C33" s="13">
         <v>15</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>0.59899999999999998</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="H33" s="15"/>
@@ -32397,7 +33323,9 @@
       <c r="J33" s="13">
         <v>15</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="O33" s="15"/>
@@ -32405,7 +33333,9 @@
       <c r="Q33" s="13">
         <v>15</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="12">
+        <v>0.35299999999999998</v>
+      </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
@@ -32437,6 +33367,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -32449,19 +33392,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -32555,8 +33485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABB2734-04DB-45C3-B495-B1BA1BC0B5BA}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33544,6 +34474,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -33556,19 +34499,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -33662,7 +34592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8A034C-C78A-4B7A-BBC6-D78012F50909}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -34413,7 +35343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3078B4A-39C9-4D2F-96A8-9F0571138CFC}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
@@ -35556,18 +36486,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="P2:P16"/>
-    <mergeCell ref="S2:S16"/>
-    <mergeCell ref="T2:T16"/>
-    <mergeCell ref="H2:H16"/>
-    <mergeCell ref="I2:I16"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="E2:E16"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="O2:O16"/>
     <mergeCell ref="O19:O33"/>
     <mergeCell ref="P19:P33"/>
     <mergeCell ref="S19:S33"/>
@@ -35580,6 +36498,18 @@
     <mergeCell ref="I19:I33"/>
     <mergeCell ref="L19:L33"/>
     <mergeCell ref="M19:M33"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="O2:O16"/>
+    <mergeCell ref="P2:P16"/>
+    <mergeCell ref="S2:S16"/>
+    <mergeCell ref="T2:T16"/>
+    <mergeCell ref="H2:H16"/>
+    <mergeCell ref="I2:I16"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -35673,7 +36603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C34D981-1D19-4CA6-ACC1-BD337674EF6F}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -36842,6 +37772,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:T16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="H2:H16"/>
+    <mergeCell ref="I2:I16"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M16"/>
+    <mergeCell ref="O2:O16"/>
+    <mergeCell ref="P2:P16"/>
+    <mergeCell ref="S2:S16"/>
     <mergeCell ref="L19:L33"/>
     <mergeCell ref="M19:M33"/>
     <mergeCell ref="B35:T35"/>
@@ -36855,18 +37797,6 @@
     <mergeCell ref="P19:P33"/>
     <mergeCell ref="S19:S33"/>
     <mergeCell ref="T19:T33"/>
-    <mergeCell ref="T2:T16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="E2:E16"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="H2:H16"/>
-    <mergeCell ref="I2:I16"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M16"/>
-    <mergeCell ref="O2:O16"/>
-    <mergeCell ref="P2:P16"/>
-    <mergeCell ref="S2:S16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -36960,7 +37890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AABC28-4264-4654-8833-E887A48E5C2B}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
@@ -38129,6 +39059,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="O19:O33"/>
+    <mergeCell ref="P19:P33"/>
+    <mergeCell ref="S19:S33"/>
+    <mergeCell ref="T19:T33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="F19:F33"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="T2:T16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
@@ -38141,19 +39084,6 @@
     <mergeCell ref="O2:O16"/>
     <mergeCell ref="P2:P16"/>
     <mergeCell ref="S2:S16"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="E19:E33"/>
-    <mergeCell ref="F19:F33"/>
-    <mergeCell ref="H19:H33"/>
-    <mergeCell ref="L19:L33"/>
-    <mergeCell ref="M19:M33"/>
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="O19:O33"/>
-    <mergeCell ref="P19:P33"/>
-    <mergeCell ref="S19:S33"/>
-    <mergeCell ref="T19:T33"/>
-    <mergeCell ref="I19:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
@@ -39236,6 +40166,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="T2:T16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="H2:H16"/>
+    <mergeCell ref="I2:I16"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M16"/>
+    <mergeCell ref="O2:O16"/>
+    <mergeCell ref="P2:P16"/>
+    <mergeCell ref="S2:S16"/>
     <mergeCell ref="L19:L33"/>
     <mergeCell ref="M19:M33"/>
     <mergeCell ref="B35:T35"/>
@@ -39249,18 +40191,6 @@
     <mergeCell ref="P19:P33"/>
     <mergeCell ref="S19:S33"/>
     <mergeCell ref="T19:T33"/>
-    <mergeCell ref="T2:T16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="E2:E16"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="H2:H16"/>
-    <mergeCell ref="I2:I16"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M16"/>
-    <mergeCell ref="O2:O16"/>
-    <mergeCell ref="P2:P16"/>
-    <mergeCell ref="S2:S16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
